--- a/data/tests/cluster_31.xlsx
+++ b/data/tests/cluster_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,20 +463,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rv1430</t>
+          <t>Rv2539c</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PE16 Rv1430</t>
+          <t>aroK Rv2539c MTCY159.17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FUNCTION: Esterase that hydrolyzes short to medium chain fatty acid esters with the highest specific activity for p-nitrophenyl caproate (pNPC6). Has lower activity with p-nitrophenyl caprylate (pNPC8) and p-nitrophenyl butyrate (pNPC4). Has weak activity with p-nitrophenyl caprate (pNPC10) and p-nitrophenyl laurate (pNPC12). Does not possess lipolytic activity and cutinase activity. {ECO:0000269|PubMed:23383323}.</t>
+          <t>FUNCTION: Catalyzes the specific phosphorylation of the 3-hydroxyl group of shikimic acid using ATP as a cosubstrate. {ECO:0000269|PubMed:11483005, ECO:0000269|PubMed:17020768}.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -486,20 +486,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rv2539c</t>
+          <t>Rv1430</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>aroK Rv2539c MTCY159.17</t>
+          <t>PE16 Rv1430</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the specific phosphorylation of the 3-hydroxyl group of shikimic acid using ATP as a cosubstrate. {ECO:0000269|PubMed:11483005, ECO:0000269|PubMed:17020768}.</t>
+          <t>FUNCTION: Esterase that hydrolyzes short to medium chain fatty acid esters with the highest specific activity for p-nitrophenyl caproate (pNPC6). Has lower activity with p-nitrophenyl caprylate (pNPC8) and p-nitrophenyl butyrate (pNPC4). Has weak activity with p-nitrophenyl caprate (pNPC10) and p-nitrophenyl laurate (pNPC12). Does not possess lipolytic activity and cutinase activity. {ECO:0000269|PubMed:23383323}.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -526,6 +526,193 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rv3923c</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rnpA Rv3923c MTV028.14c</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FUNCTION: RNaseP catalyzes the removal of the 5'-leader sequence from pre-tRNA to produce the mature 5'-terminus. It can also cleave other RNA substrates such as 4.5S RNA. The protein component plays an auxiliary but essential role in vivo by binding to the 5'-leader sequence and broadening the substrate specificity of the ribozyme. {ECO:0000255|HAMAP-Rule:MF_00227}.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rv3917c</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>parB Rv3917c MTV028.08c</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in chromosome partition. Localize to both poles of the predivisional cell following completion of DNA replication. Binds to the DNA origin of replication (By similarity). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rv3866</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>espG1 snm5 Rv3866</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FUNCTION: Specific chaperone for cognate PE/PPE proteins. Plays an important role in preventing aggregation of PE/PPE dimers. {ECO:0000250|UniProtKB:O53943}.</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv1114</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vapC32 Rv1114</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FUNCTION: Toxic component of a type II toxin-antitoxin (TA) system. An RNase (By similarity). Upon expression in M.smegmatis inhibits colony formation. Its toxic effect is neutralized by coexpression with cognate antitoxin VapB32. {ECO:0000255|HAMAP-Rule:MF_00265, ECO:0000269|PubMed:20011113}.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv1382</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rv1382</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv0650</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rv0650</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv3829c</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rv3829c</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv0370c</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rv0370c</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv1141c</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>echA11 Rv1141c</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
         <v>31</v>
       </c>
     </row>
